--- a/src/test/resources/book1.xlsx
+++ b/src/test/resources/book1.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8520"/>
+    <workbookView windowHeight="8520" windowWidth="20385"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="1">
   <si>
     <t>sai0020</t>
   </si>
@@ -50,16 +50,19 @@
   <si>
     <t>sai0030</t>
   </si>
+  <si>
+    <t>GG</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -523,214 +526,214 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="21" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="14" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="13" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="13" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="4" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
+    <cellStyle builtinId="28" name="适中" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -739,10 +742,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -900,7 +903,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -909,13 +912,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -925,7 +928,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -934,7 +937,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -943,7 +946,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -953,12 +956,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -989,7 +992,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1008,7 +1011,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1020,9 +1023,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="F15:F25"/>
+  <dimension ref="F15:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F15" sqref="F15:F25"/>
@@ -1056,8 +1059,8 @@
       </c>
     </row>
     <row r="20" spans="6:6">
-      <c r="F20" s="1" t="s">
-        <v>5</v>
+      <c r="F20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="6:6">
@@ -1086,14 +1089,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1103,14 +1106,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1120,8 +1123,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/resources/book1.xlsx
+++ b/src/test/resources/book1.xlsx
@@ -16,7 +16,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="0">
+  <si>
+    <t>sai0024</t>
+  </si>
+  <si>
+    <t>22222</t>
+  </si>
+  <si>
+    <t>sai0026</t>
+  </si>
+  <si>
+    <t>sai0027</t>
+  </si>
+  <si>
+    <t>sai0028</t>
+  </si>
   <si>
     <t>sai0020</t>
   </si>
@@ -30,28 +45,13 @@
     <t>sai0023</t>
   </si>
   <si>
-    <t>sai0024</t>
-  </si>
-  <si>
-    <t>sai0025</t>
-  </si>
-  <si>
-    <t>sai0026</t>
-  </si>
-  <si>
-    <t>sai0027</t>
-  </si>
-  <si>
-    <t>sai0028</t>
-  </si>
-  <si>
     <t>sai0029</t>
   </si>
   <si>
     <t>sai0030</t>
   </si>
   <si>
-    <t>GG</t>
+    <t>aaaaa</t>
   </si>
 </sst>
 </file>
@@ -64,7 +64,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,23 +73,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="9"/>
+      <color rgb="FF63E600"/>
+      <name val="Source Code Pro"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,55 +108,78 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,7 +192,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,52 +200,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,19 +237,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,25 +351,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,133 +411,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,6 +428,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -446,7 +489,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,17 +509,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,191 +528,164 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="21" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="9">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="3" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="6" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="14" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="13" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="13" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="4" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="1" numFmtId="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="8" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="8" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="14" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -1025,67 +1035,184 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="F15:G25"/>
+  <dimension ref="F9:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:F25"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="15" spans="6:6">
-      <c r="F15" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="6:6">
-      <c r="F16" s="1" t="s">
-        <v>1</v>
+    <row r="9" spans="8:8">
+      <c r="H9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row ht="14.25" r="10" spans="8:8">
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="8:16">
+      <c r="H11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row ht="14.25" r="12" spans="8:16">
+      <c r="H12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row ht="14.25" r="13" spans="8:16">
+      <c r="H13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="13:16">
+      <c r="M14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="6:16">
+      <c r="F15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="6:13">
+      <c r="F16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="6:6">
-      <c r="F17" s="1" t="s">
-        <v>2</v>
+      <c r="F17" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="6:6">
-      <c r="F18" s="1" t="s">
-        <v>3</v>
+      <c r="F18" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="6:6">
-      <c r="F19" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="6:6">
+      <c r="F19" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="6:17">
       <c r="F20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="6:6">
-      <c r="F21" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="6:6">
-      <c r="F22" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="6:6">
-      <c r="F23" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="6:6">
-      <c r="F24" s="1" t="s">
+      <c r="J20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row ht="14.25" r="21" spans="6:17">
+      <c r="F21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row ht="14.25" r="22" spans="6:17">
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M22" t="s">
+        <v>11</v>
+      </c>
+      <c r="O22" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="6:17">
+      <c r="F23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="6:17">
+      <c r="F24" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="6:6">
-      <c r="F25" s="1" t="s">
+      <c r="J24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="6:15">
+      <c r="F25" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1098,14 +1225,176 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B6:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F21" sqref="F21:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="6" spans="10:10">
+      <c r="J6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row ht="14.25" r="7" spans="10:10">
+      <c r="J7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="10:10">
+      <c r="J8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="10:10">
+      <c r="J9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13">
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row ht="14.25" r="11" spans="3:13">
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row ht="14.25" r="12" spans="3:13">
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13">
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13">
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="7:7">
+      <c r="G15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9">
+      <c r="I18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row ht="14.25" r="19" spans="9:9">
+      <c r="I19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row ht="14.25" r="21" spans="2:12">
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row ht="14.25" r="22" spans="2:12">
+      <c r="B22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="6:12">
+      <c r="F25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
   <headerFooter/>
@@ -1115,14 +1404,77 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="F14:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="O14" sqref="O14:O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="14" spans="15:15">
+      <c r="O14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row ht="14.25" r="15" spans="9:15">
+      <c r="I15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row ht="14.25" r="16" spans="9:15">
+      <c r="I16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row ht="14.25" r="17" spans="9:15">
+      <c r="I17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" t="s">
+        <v>11</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="9:15">
+      <c r="I18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="9:12">
+      <c r="I19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="6:12">
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
   <headerFooter/>
